--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1215005.668084641</v>
+        <v>1211531.698056342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564201</v>
+        <v>189902.9539564206</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>9102620.618728809</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>380.5175299682354</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.762770012163</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.682695777305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>43.31785343914007</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>353.0727780200536</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>32.64956439617052</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250886</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964037</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>398.0313798843944</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1309,7 +1309,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>208.9978294690251</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>216.1357776764019</v>
       </c>
       <c r="U11" t="n">
-        <v>105.2581407114543</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.11928264603867</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.3028656524355</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>321.7064610691122</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.4526210585752</v>
       </c>
       <c r="H16" t="n">
-        <v>99.34508049624266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>48.4326051737889</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>343.0471961917883</v>
       </c>
     </row>
     <row r="18">
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>59.03226091544995</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2555,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>321.5584859445105</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7498756807022</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>280.1033070984082</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3202,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>153.055538822593</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>114.3028656524357</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>275.4805812731082</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>95.04150341252317</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3402,7 +3402,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>204.9166562652112</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>105.9602739879884</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731082</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>9.461970681989468</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.6993815150877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>275.4805812731082</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1151.287095764662</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>765.4988431664176</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>765.4988431664176</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4343,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.341643278937</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.341643278937</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.341643278937</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,52 +4404,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>97.69838933464737</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648871</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.3714747656866</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4089578252748</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>1309.206655608311</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2664.169733042294</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.407947680385</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2079.345060336814</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1726.5764050667</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1353.11064680562</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y5" t="n">
-        <v>962.9713148298083</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961351</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424012</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673431</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
@@ -4662,34 +4662,34 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.959449965771</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>797.9969330253592</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7312344186087</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036446</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036446</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2669.933035536899</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.164380266785</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1943.698622005704</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.559290029893</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G10" t="n">
-        <v>348.020265289186</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.0200655508536</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.959449965771</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9969330253591</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>439.7312344186087</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5039,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.830123668321</v>
       </c>
       <c r="U11" t="n">
-        <v>2317.164380266784</v>
+        <v>2225.068338306413</v>
       </c>
       <c r="V11" t="n">
-        <v>2317.164380266784</v>
+        <v>1894.005450962842</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.164380266784</v>
+        <v>1541.236795692728</v>
       </c>
       <c r="X11" t="n">
-        <v>1943.698622005704</v>
+        <v>1167.771037431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.559290029893</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5139,28 +5139,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064346</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064346</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940988</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117057</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F13" t="n">
-        <v>359.2716929833838</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2718927217162</v>
+        <v>169.4004218733296</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064346</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>336.2769833124028</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2769833124028</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G16" t="n">
-        <v>336.2769833124028</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2648.227267610355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.164380266784</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5613,22 +5613,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5677,40 +5677,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>536.6170209242687</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U19" t="n">
-        <v>536.6170209242687</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5792,10 +5792,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5841,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5935,19 +5935,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>632.5337622027571</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036445</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.309493689272</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -6005,34 +6005,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>2105.048665729205</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1714.909333753394</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,67 +6042,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005474</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X25" t="n">
-        <v>245.45494510253</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1902.75190621448</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.944160717209</v>
+        <v>1533.789389274068</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1175.523690667318</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>789.7354380690736</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>378.749533279466</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>2289.351746278602</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>2273.528419884429</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>2273.528419884429</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>2273.528419884429</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>2273.528419884429</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>2104.528619622761</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
         <v>2022.963088632153</v>
@@ -6388,46 +6388,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V28" t="n">
         <v>2442.464602812336</v>
       </c>
       <c r="W28" t="n">
-        <v>2442.464602812336</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>2442.464602812336</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224075</v>
@@ -6479,28 +6479,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
         <v>2323.683332757143</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6552,31 +6552,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>1133.649772640952</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>747.8615200427075</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>336.8756152531</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>336.8756152531</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6701,16 +6701,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X32" t="n">
-        <v>2354.684526795312</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.4805193761945</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C34" t="n">
-        <v>377.5443364482876</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="D34" t="n">
-        <v>377.5443364482876</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="E34" t="n">
-        <v>377.5443364482876</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="F34" t="n">
-        <v>377.5443364482876</v>
+        <v>338.4002221349974</v>
       </c>
       <c r="G34" t="n">
-        <v>208.54453618662</v>
+        <v>169.4004218733298</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>169.4004218733298</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6862,46 +6862,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C35" t="n">
-        <v>1546.94416071721</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>1897.544942874532</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>1544.776287604418</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1171.310529343338</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7020,10 +7020,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,16 +7035,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="V37" t="n">
-        <v>2540.369809567132</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="W37" t="n">
-        <v>2250.952639530171</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>833.8914035503838</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
@@ -7190,34 +7190,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2535.089821762869</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2281.32803640096</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>1950.265149057389</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>1597.496493787275</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1224.030735526195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>833.8914035503838</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7260,7 +7260,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>685.9562484787605</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>685.9562484787605</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750361</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750361</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W43" t="n">
-        <v>500.8207968750361</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X43" t="n">
-        <v>272.8312459770187</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>63.50052796378816</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.94416071721</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7667,31 +7667,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875001</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747164</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951785</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9489,10 +9489,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>33.26664005255964</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>85.9894884579719</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>123.9919488199108</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22726,7 +22726,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22768,10 +22768,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,13 +22793,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>53.80326772165785</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>183.7987559614873</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22951,19 +22951,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -22993,13 +22993,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168062</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>15.75279013640062</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.53450764830089</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23185,10 +23185,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,13 +23221,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>3.147709480993768</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.3125426812558487</v>
       </c>
       <c r="U11" t="n">
-        <v>145.966026796835</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>75.30176537689258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>41.86802318935965</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,7 +23552,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>6.045797401022753</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="H16" t="n">
-        <v>56.82580834555249</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.045797401022796</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>43.19074246426527</v>
       </c>
     </row>
     <row r="18">
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>22.54869530067481</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>117.5062691663783</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>306.2406308555576</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -24379,13 +24379,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0.04372617964787651</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24443,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>92.22568407628449</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>75.42101316109294</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24892,19 +24892,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>63.13204062090043</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>43.819465665949</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,13 +25090,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.115350019202168</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>20.6627561399025</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>79.20246034757474</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>232.7107550576117</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>20.11844919287307</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>96.92615468724765</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,22 +25436,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>110.4880463696694</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>104.9141836097606</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,19 +25628,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789934</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,13 +25682,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>157.8478315770614</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.885271837007053</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>89.79231049789934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>309.2728333501971</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837006968</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
@@ -26326,7 +26326,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
         <v>303610.2405165454</v>
@@ -26335,22 +26335,22 @@
         <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="K2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="K2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="L2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="M2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="O2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
         <v>303610.2405165454</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145448</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26488,28 +26488,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387030.4298216046</v>
+        <v>-387445.6443310718</v>
       </c>
       <c r="C6" t="n">
-        <v>202937.44939294</v>
+        <v>202522.2348834727</v>
       </c>
       <c r="D6" t="n">
-        <v>202937.4493929399</v>
+        <v>202522.2348834728</v>
       </c>
       <c r="E6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="F6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="G6" t="n">
-        <v>236565.0493929398</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="H6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="I6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="J6" t="n">
-        <v>60141.83020034702</v>
+        <v>59726.61569087976</v>
       </c>
       <c r="K6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="L6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="M6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="N6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="O6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="P6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834726</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26808,28 +26808,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,43 +31756,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31932,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34226,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,13 +35738,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35969,16 +35969,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36209,10 +36209,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36689,7 +36689,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37628,16 +37628,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37874,7 +37874,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
